--- a/data/Rockets and spaceports.xlsx
+++ b/data/Rockets and spaceports.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\coding\Projects\Space Apps 2018\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\coding\Projects\Top\Space Apps 2018\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA438970-B6D4-4A46-9371-00FD6169B90A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42F4EC1-556C-4647-8FC9-D8A5144988C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3168" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,21 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="165">
   <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Rocket</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Photo</t>
-  </si>
-  <si>
     <t>ARCA</t>
   </si>
   <si>
@@ -515,6 +500,21 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRzEfD_UCmWWOkpwhwN6rUOsFifrM1Op-y6DCJyKqXXQL6LN8mFzdFWQ3fE</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>rocket</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>image</t>
   </si>
 </sst>
 </file>
@@ -931,25 +931,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>162</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -957,19 +959,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -977,19 +979,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -997,19 +999,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1026,19 +1028,19 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1052,19 +1054,19 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1072,19 +1074,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1092,19 +1094,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1112,19 +1114,19 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1132,19 +1134,19 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1152,19 +1154,19 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1172,19 +1174,19 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1192,19 +1194,19 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1212,19 +1214,19 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1232,19 +1234,19 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1255,19 +1257,19 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1278,19 +1280,19 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1298,19 +1300,19 @@
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1318,19 +1320,19 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1338,19 +1340,19 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1358,19 +1360,19 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1378,19 +1380,19 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1398,19 +1400,19 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1418,19 +1420,19 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1438,19 +1440,19 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1458,19 +1460,19 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1478,19 +1480,19 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1498,19 +1500,19 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1524,19 +1526,19 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1547,19 +1549,19 @@
         <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1567,19 +1569,19 @@
         <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1587,19 +1589,19 @@
         <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1607,19 +1609,19 @@
         <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1630,16 +1632,16 @@
         <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1647,19 +1649,19 @@
         <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1667,19 +1669,19 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1687,19 +1689,19 @@
         <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1707,19 +1709,19 @@
         <v>37</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1733,31 +1735,31 @@
         <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="F53" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="F54" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1768,19 +1770,19 @@
         <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -1789,7 +1791,7 @@
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="F58" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1798,7 +1800,7 @@
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="F60" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -1812,19 +1814,19 @@
         <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -1832,19 +1834,19 @@
         <v>41</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -1855,19 +1857,19 @@
         <v>42</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -1878,19 +1880,19 @@
         <v>43</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -1901,19 +1903,19 @@
         <v>44</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -1921,19 +1923,19 @@
         <v>45</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
